--- a/medicine/Mort/Sequehart_British_Cemetery_N°1/Sequehart_British_Cemetery_N°1.xlsx
+++ b/medicine/Mort/Sequehart_British_Cemetery_N°1/Sequehart_British_Cemetery_N°1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sequehart_British_Cemetery_N%C2%B01</t>
+          <t>Sequehart_British_Cemetery_N°1</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sequehart British Cemetery No 1 est un cimetière militaire de la Première Guerre mondiale situé sur le territoire de la commune de Sequehart dans le département de l'Aisne.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sequehart_British_Cemetery_N%C2%B01</t>
+          <t>Sequehart_British_Cemetery_N°1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le village de Sequehart a été occupé par les Allemands dès le 28 août 1914 et a été épargné par les combats jusqu'en octobre 1918 date de sa reprise par les troupes britanniques, les 5e et 6e Royal Scots et le 15e Highland Light Infantry  .
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sequehart_British_Cemetery_N%C2%B01</t>
+          <t>Sequehart_British_Cemetery_N°1</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Caractéristique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sequehart a été capturé le 3 octobre 1918 après trois jours de combats. Le cimetière britannique no 1 a été fait le 10 octobre 1918. Il comprend 56 tombes de soldats britanniques, dont 2 sont non identifiés, tous tombés dans les 8 premiers jours d'octobre[1]. Ce cimetière est situé près de l'église derrière le cimetière communal. Un second cimetière britannique Sequehart British Cemetery N°2 se situe à une centaine de mètres.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sequehart a été capturé le 3 octobre 1918 après trois jours de combats. Le cimetière britannique no 1 a été fait le 10 octobre 1918. Il comprend 56 tombes de soldats britanniques, dont 2 sont non identifiés, tous tombés dans les 8 premiers jours d'octobre. Ce cimetière est situé près de l'église derrière le cimetière communal. Un second cimetière britannique Sequehart British Cemetery N°2 se situe à une centaine de mètres.
 </t>
         </is>
       </c>
